--- a/Scenarios_to_compare.xlsx
+++ b/Scenarios_to_compare.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/Scripts/WHATIF_public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9A308C77-914E-4C36-953C-3365BEFAB923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FD8E9D92-4735-42C5-8751-BE571E979821}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="6_{9CA2FC89-EB85-48E5-BFDB-8E77C7912A6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{90AE691F-1D3E-4B21-B459-FC4768E64E89}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="default" sheetId="19" r:id="rId1"/>
+    <sheet name="main" sheetId="18" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>SCENARIOS TO COMPARE</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>refscen</t>
+  </si>
+  <si>
+    <t>WHATIF_main</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,24 +390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCCDB5-2BAB-4B5C-8DEF-46381F1D3D0D}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC778B4-C455-4BC3-83A5-43C86DD8C385}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -411,9 +415,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios_to_compare.xlsx
+++ b/Scenarios_to_compare.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="6_{9CA2FC89-EB85-48E5-BFDB-8E77C7912A6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{90AE691F-1D3E-4B21-B459-FC4768E64E89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FCFBF-04F5-4855-B944-57C587E472CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="18" r:id="rId1"/>
+    <sheet name="ifpri" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="300">
   <si>
     <t>SCENARIOS TO COMPARE</t>
   </si>
@@ -37,13 +38,901 @@
   </si>
   <si>
     <t>WHATIF_main</t>
+  </si>
+  <si>
+    <t>m0</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>m13</t>
+  </si>
+  <si>
+    <t>m14</t>
+  </si>
+  <si>
+    <t>m15</t>
+  </si>
+  <si>
+    <t>m16</t>
+  </si>
+  <si>
+    <t>m17</t>
+  </si>
+  <si>
+    <t>m18</t>
+  </si>
+  <si>
+    <t>m19</t>
+  </si>
+  <si>
+    <t>m20</t>
+  </si>
+  <si>
+    <t>m21</t>
+  </si>
+  <si>
+    <t>m22</t>
+  </si>
+  <si>
+    <t>m23</t>
+  </si>
+  <si>
+    <t>m24</t>
+  </si>
+  <si>
+    <t>m25</t>
+  </si>
+  <si>
+    <t>m26</t>
+  </si>
+  <si>
+    <t>m27</t>
+  </si>
+  <si>
+    <t>m28</t>
+  </si>
+  <si>
+    <t>m29</t>
+  </si>
+  <si>
+    <t>m30</t>
+  </si>
+  <si>
+    <t>m31</t>
+  </si>
+  <si>
+    <t>m32</t>
+  </si>
+  <si>
+    <t>m33</t>
+  </si>
+  <si>
+    <t>m34</t>
+  </si>
+  <si>
+    <t>m35</t>
+  </si>
+  <si>
+    <t>m36</t>
+  </si>
+  <si>
+    <t>m37</t>
+  </si>
+  <si>
+    <t>m38</t>
+  </si>
+  <si>
+    <t>m39</t>
+  </si>
+  <si>
+    <t>m40</t>
+  </si>
+  <si>
+    <t>m41</t>
+  </si>
+  <si>
+    <t>m42</t>
+  </si>
+  <si>
+    <t>m43</t>
+  </si>
+  <si>
+    <t>m44</t>
+  </si>
+  <si>
+    <t>m45</t>
+  </si>
+  <si>
+    <t>m46</t>
+  </si>
+  <si>
+    <t>m47</t>
+  </si>
+  <si>
+    <t>m48</t>
+  </si>
+  <si>
+    <t>m49</t>
+  </si>
+  <si>
+    <t>m50</t>
+  </si>
+  <si>
+    <t>m51</t>
+  </si>
+  <si>
+    <t>m52</t>
+  </si>
+  <si>
+    <t>m53</t>
+  </si>
+  <si>
+    <t>m54</t>
+  </si>
+  <si>
+    <t>m55</t>
+  </si>
+  <si>
+    <t>m56</t>
+  </si>
+  <si>
+    <t>m57</t>
+  </si>
+  <si>
+    <t>m58</t>
+  </si>
+  <si>
+    <t>m59</t>
+  </si>
+  <si>
+    <t>m60</t>
+  </si>
+  <si>
+    <t>m61</t>
+  </si>
+  <si>
+    <t>m62</t>
+  </si>
+  <si>
+    <t>m63</t>
+  </si>
+  <si>
+    <t>m64</t>
+  </si>
+  <si>
+    <t>m65</t>
+  </si>
+  <si>
+    <t>m66</t>
+  </si>
+  <si>
+    <t>m67</t>
+  </si>
+  <si>
+    <t>m68</t>
+  </si>
+  <si>
+    <t>m69</t>
+  </si>
+  <si>
+    <t>m70</t>
+  </si>
+  <si>
+    <t>m71</t>
+  </si>
+  <si>
+    <t>m72</t>
+  </si>
+  <si>
+    <t>m73</t>
+  </si>
+  <si>
+    <t>m74</t>
+  </si>
+  <si>
+    <t>m75</t>
+  </si>
+  <si>
+    <t>m76</t>
+  </si>
+  <si>
+    <t>m77</t>
+  </si>
+  <si>
+    <t>m78</t>
+  </si>
+  <si>
+    <t>m79</t>
+  </si>
+  <si>
+    <t>m80</t>
+  </si>
+  <si>
+    <t>m81</t>
+  </si>
+  <si>
+    <t>m82</t>
+  </si>
+  <si>
+    <t>m83</t>
+  </si>
+  <si>
+    <t>m84</t>
+  </si>
+  <si>
+    <t>m85</t>
+  </si>
+  <si>
+    <t>m86</t>
+  </si>
+  <si>
+    <t>m87</t>
+  </si>
+  <si>
+    <t>m88</t>
+  </si>
+  <si>
+    <t>m90</t>
+  </si>
+  <si>
+    <t>m91</t>
+  </si>
+  <si>
+    <t>m92</t>
+  </si>
+  <si>
+    <t>m93</t>
+  </si>
+  <si>
+    <t>m94</t>
+  </si>
+  <si>
+    <t>m95</t>
+  </si>
+  <si>
+    <t>m96</t>
+  </si>
+  <si>
+    <t>m97</t>
+  </si>
+  <si>
+    <t>m98</t>
+  </si>
+  <si>
+    <t>m99</t>
+  </si>
+  <si>
+    <t>m100</t>
+  </si>
+  <si>
+    <t>m101</t>
+  </si>
+  <si>
+    <t>m102</t>
+  </si>
+  <si>
+    <t>m103</t>
+  </si>
+  <si>
+    <t>m104</t>
+  </si>
+  <si>
+    <t>m105</t>
+  </si>
+  <si>
+    <t>m106</t>
+  </si>
+  <si>
+    <t>m107</t>
+  </si>
+  <si>
+    <t>m108</t>
+  </si>
+  <si>
+    <t>m109</t>
+  </si>
+  <si>
+    <t>m111</t>
+  </si>
+  <si>
+    <t>m112</t>
+  </si>
+  <si>
+    <t>m113</t>
+  </si>
+  <si>
+    <t>m114</t>
+  </si>
+  <si>
+    <t>m115</t>
+  </si>
+  <si>
+    <t>m116</t>
+  </si>
+  <si>
+    <t>m117</t>
+  </si>
+  <si>
+    <t>m118</t>
+  </si>
+  <si>
+    <t>m119</t>
+  </si>
+  <si>
+    <t>m120</t>
+  </si>
+  <si>
+    <t>m121</t>
+  </si>
+  <si>
+    <t>m122</t>
+  </si>
+  <si>
+    <t>m123</t>
+  </si>
+  <si>
+    <t>m124</t>
+  </si>
+  <si>
+    <t>m125</t>
+  </si>
+  <si>
+    <t>m126</t>
+  </si>
+  <si>
+    <t>m127</t>
+  </si>
+  <si>
+    <t>m128</t>
+  </si>
+  <si>
+    <t>m129</t>
+  </si>
+  <si>
+    <t>m130</t>
+  </si>
+  <si>
+    <t>m131</t>
+  </si>
+  <si>
+    <t>m132</t>
+  </si>
+  <si>
+    <t>m133</t>
+  </si>
+  <si>
+    <t>m134</t>
+  </si>
+  <si>
+    <t>m135</t>
+  </si>
+  <si>
+    <t>m136</t>
+  </si>
+  <si>
+    <t>m137</t>
+  </si>
+  <si>
+    <t>m138</t>
+  </si>
+  <si>
+    <t>m139</t>
+  </si>
+  <si>
+    <t>m140</t>
+  </si>
+  <si>
+    <t>m141</t>
+  </si>
+  <si>
+    <t>m142</t>
+  </si>
+  <si>
+    <t>m143</t>
+  </si>
+  <si>
+    <t>m144</t>
+  </si>
+  <si>
+    <t>m145</t>
+  </si>
+  <si>
+    <t>m146</t>
+  </si>
+  <si>
+    <t>m147</t>
+  </si>
+  <si>
+    <t>m148</t>
+  </si>
+  <si>
+    <t>m149</t>
+  </si>
+  <si>
+    <t>m150</t>
+  </si>
+  <si>
+    <t>m151</t>
+  </si>
+  <si>
+    <t>m152</t>
+  </si>
+  <si>
+    <t>m153</t>
+  </si>
+  <si>
+    <t>m154</t>
+  </si>
+  <si>
+    <t>m155</t>
+  </si>
+  <si>
+    <t>m156</t>
+  </si>
+  <si>
+    <t>m157</t>
+  </si>
+  <si>
+    <t>m158</t>
+  </si>
+  <si>
+    <t>m159</t>
+  </si>
+  <si>
+    <t>m160</t>
+  </si>
+  <si>
+    <t>m161</t>
+  </si>
+  <si>
+    <t>m162</t>
+  </si>
+  <si>
+    <t>m163</t>
+  </si>
+  <si>
+    <t>m164</t>
+  </si>
+  <si>
+    <t>m165</t>
+  </si>
+  <si>
+    <t>m166</t>
+  </si>
+  <si>
+    <t>m167</t>
+  </si>
+  <si>
+    <t>m168</t>
+  </si>
+  <si>
+    <t>m169</t>
+  </si>
+  <si>
+    <t>m170</t>
+  </si>
+  <si>
+    <t>m171</t>
+  </si>
+  <si>
+    <t>m172</t>
+  </si>
+  <si>
+    <t>m173</t>
+  </si>
+  <si>
+    <t>m174</t>
+  </si>
+  <si>
+    <t>m175</t>
+  </si>
+  <si>
+    <t>m176</t>
+  </si>
+  <si>
+    <t>m177</t>
+  </si>
+  <si>
+    <t>m178</t>
+  </si>
+  <si>
+    <t>m179</t>
+  </si>
+  <si>
+    <t>m180</t>
+  </si>
+  <si>
+    <t>m181</t>
+  </si>
+  <si>
+    <t>m182</t>
+  </si>
+  <si>
+    <t>m183</t>
+  </si>
+  <si>
+    <t>m184</t>
+  </si>
+  <si>
+    <t>m185</t>
+  </si>
+  <si>
+    <t>m186</t>
+  </si>
+  <si>
+    <t>m187</t>
+  </si>
+  <si>
+    <t>m188</t>
+  </si>
+  <si>
+    <t>m189</t>
+  </si>
+  <si>
+    <t>m190</t>
+  </si>
+  <si>
+    <t>m191</t>
+  </si>
+  <si>
+    <t>m192</t>
+  </si>
+  <si>
+    <t>m193</t>
+  </si>
+  <si>
+    <t>m194</t>
+  </si>
+  <si>
+    <t>m195</t>
+  </si>
+  <si>
+    <t>m196</t>
+  </si>
+  <si>
+    <t>m197</t>
+  </si>
+  <si>
+    <t>m198</t>
+  </si>
+  <si>
+    <t>m199</t>
+  </si>
+  <si>
+    <t>m200</t>
+  </si>
+  <si>
+    <t>m201</t>
+  </si>
+  <si>
+    <t>m202</t>
+  </si>
+  <si>
+    <t>m203</t>
+  </si>
+  <si>
+    <t>m204</t>
+  </si>
+  <si>
+    <t>m205</t>
+  </si>
+  <si>
+    <t>m206</t>
+  </si>
+  <si>
+    <t>m207</t>
+  </si>
+  <si>
+    <t>m208</t>
+  </si>
+  <si>
+    <t>m210</t>
+  </si>
+  <si>
+    <t>m211</t>
+  </si>
+  <si>
+    <t>m212</t>
+  </si>
+  <si>
+    <t>m213</t>
+  </si>
+  <si>
+    <t>m214</t>
+  </si>
+  <si>
+    <t>m215</t>
+  </si>
+  <si>
+    <t>m216</t>
+  </si>
+  <si>
+    <t>m217</t>
+  </si>
+  <si>
+    <t>m218</t>
+  </si>
+  <si>
+    <t>m219</t>
+  </si>
+  <si>
+    <t>m220</t>
+  </si>
+  <si>
+    <t>m221</t>
+  </si>
+  <si>
+    <t>m222</t>
+  </si>
+  <si>
+    <t>m223</t>
+  </si>
+  <si>
+    <t>m224</t>
+  </si>
+  <si>
+    <t>m225</t>
+  </si>
+  <si>
+    <t>m226</t>
+  </si>
+  <si>
+    <t>m227</t>
+  </si>
+  <si>
+    <t>m228</t>
+  </si>
+  <si>
+    <t>m229</t>
+  </si>
+  <si>
+    <t>m230</t>
+  </si>
+  <si>
+    <t>m231</t>
+  </si>
+  <si>
+    <t>m232</t>
+  </si>
+  <si>
+    <t>m233</t>
+  </si>
+  <si>
+    <t>m234</t>
+  </si>
+  <si>
+    <t>m235</t>
+  </si>
+  <si>
+    <t>m236</t>
+  </si>
+  <si>
+    <t>m237</t>
+  </si>
+  <si>
+    <t>m238</t>
+  </si>
+  <si>
+    <t>m239</t>
+  </si>
+  <si>
+    <t>m240</t>
+  </si>
+  <si>
+    <t>m241</t>
+  </si>
+  <si>
+    <t>m242</t>
+  </si>
+  <si>
+    <t>m243</t>
+  </si>
+  <si>
+    <t>m244</t>
+  </si>
+  <si>
+    <t>m245</t>
+  </si>
+  <si>
+    <t>m246</t>
+  </si>
+  <si>
+    <t>m247</t>
+  </si>
+  <si>
+    <t>m248</t>
+  </si>
+  <si>
+    <t>m249</t>
+  </si>
+  <si>
+    <t>m250</t>
+  </si>
+  <si>
+    <t>m251</t>
+  </si>
+  <si>
+    <t>m252</t>
+  </si>
+  <si>
+    <t>m253</t>
+  </si>
+  <si>
+    <t>m254</t>
+  </si>
+  <si>
+    <t>m255</t>
+  </si>
+  <si>
+    <t>m256</t>
+  </si>
+  <si>
+    <t>m257</t>
+  </si>
+  <si>
+    <t>m258</t>
+  </si>
+  <si>
+    <t>m259</t>
+  </si>
+  <si>
+    <t>m260</t>
+  </si>
+  <si>
+    <t>m261</t>
+  </si>
+  <si>
+    <t>m262</t>
+  </si>
+  <si>
+    <t>m263</t>
+  </si>
+  <si>
+    <t>m264</t>
+  </si>
+  <si>
+    <t>m265</t>
+  </si>
+  <si>
+    <t>m266</t>
+  </si>
+  <si>
+    <t>m267</t>
+  </si>
+  <si>
+    <t>m268</t>
+  </si>
+  <si>
+    <t>m269</t>
+  </si>
+  <si>
+    <t>m270</t>
+  </si>
+  <si>
+    <t>m271</t>
+  </si>
+  <si>
+    <t>m272</t>
+  </si>
+  <si>
+    <t>m273</t>
+  </si>
+  <si>
+    <t>m274</t>
+  </si>
+  <si>
+    <t>m275</t>
+  </si>
+  <si>
+    <t>m276</t>
+  </si>
+  <si>
+    <t>m277</t>
+  </si>
+  <si>
+    <t>m278</t>
+  </si>
+  <si>
+    <t>m279</t>
+  </si>
+  <si>
+    <t>m280</t>
+  </si>
+  <si>
+    <t>m281</t>
+  </si>
+  <si>
+    <t>m282</t>
+  </si>
+  <si>
+    <t>m283</t>
+  </si>
+  <si>
+    <t>m284</t>
+  </si>
+  <si>
+    <t>m285</t>
+  </si>
+  <si>
+    <t>m286</t>
+  </si>
+  <si>
+    <t>m287</t>
+  </si>
+  <si>
+    <t>m288</t>
+  </si>
+  <si>
+    <t>m289</t>
+  </si>
+  <si>
+    <t>m290</t>
+  </si>
+  <si>
+    <t>m291</t>
+  </si>
+  <si>
+    <t>m292</t>
+  </si>
+  <si>
+    <t>m293</t>
+  </si>
+  <si>
+    <t>m294</t>
+  </si>
+  <si>
+    <t>m295</t>
+  </si>
+  <si>
+    <t>m296</t>
+  </si>
+  <si>
+    <t>m297</t>
+  </si>
+  <si>
+    <t>m298</t>
+  </si>
+  <si>
+    <t>m299</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +956,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,21 +1288,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC778B4-C455-4BC3-83A5-43C86DD8C385}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -423,97 +1318,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -521,4 +1416,1513 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D12169D-4F8A-4244-AB0B-EC74409C67A5}">
+  <dimension ref="A1:B298"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:XFD209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>